--- a/src/Excel/entregable1/DepositoLocalEfectico.xlsx
+++ b/src/Excel/entregable1/DepositoLocalEfectico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3AC294-AAEF-4974-95C0-273A7990D28B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A262BF8-196E-4E15-AB57-21682641F072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1960" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DepositoLocalEfectico" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
   <si>
     <t>usuario</t>
   </si>
@@ -45,12 +45,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>1008955421</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -60,34 +54,109 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>4793357</t>
+  </si>
+  <si>
+    <t>4793361</t>
+  </si>
+  <si>
+    <t>4793371</t>
+  </si>
+  <si>
+    <t>4793372</t>
+  </si>
+  <si>
+    <t>4793373</t>
+  </si>
+  <si>
+    <t>4793374</t>
+  </si>
+  <si>
+    <t>4793375</t>
+  </si>
+  <si>
+    <t>4793377</t>
+  </si>
+  <si>
+    <t>4793379</t>
+  </si>
+  <si>
+    <t>4793380</t>
+  </si>
+  <si>
+    <t>4793381</t>
+  </si>
+  <si>
+    <t>4793382</t>
+  </si>
+  <si>
+    <t>4793383</t>
+  </si>
+  <si>
+    <t>4793384</t>
+  </si>
+  <si>
+    <t>4793385</t>
+  </si>
+  <si>
+    <t>4793386</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>5 mar. 2023, 20:27:24</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 12:14:39</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 14:07:41</t>
-  </si>
-  <si>
-    <t>7 mar. 2023, 08:30:22</t>
-  </si>
-  <si>
-    <t>7 mar. 2023, 08:31:53</t>
-  </si>
-  <si>
-    <t>7 mar. 2023, 08:34:30</t>
-  </si>
-  <si>
-    <t>7 mar. 2023, 08:36:19</t>
-  </si>
-  <si>
-    <t>7 mar. 2023, 08:40:38</t>
+    <t>31 mar. 2023, 09:40:04</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:40:53</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:41:43</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:42:30</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:43:12</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:43:52</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:44:32</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:45:16</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:45:56</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:46:35</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:47:15</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:47:54</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:48:35</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:49:14</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:49:57</t>
+  </si>
+  <si>
+    <t>31 mar. 2023, 09:50:39</t>
   </si>
 </sst>
 </file>
@@ -95,10 +164,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,7 +220,64 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -421,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,13 +582,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -467,22 +599,416 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",C2)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C13">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",C4)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C17">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",C14)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/Excel/entregable1/DepositoLocalEfectico.xlsx
+++ b/src/Excel/entregable1/DepositoLocalEfectico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529618ED-A15F-455C-8F33-BBFC75CA309B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67013E7E-93BE-44CD-9E07-C742BCB72F60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>usuario</t>
   </si>
@@ -66,7 +66,16 @@
     <t/>
   </si>
   <si>
-    <t>26 jun. 2023, 12:45:24</t>
+    <t>14 jul. 2023, 09:37:40</t>
+  </si>
+  <si>
+    <t>TT23195K05WV 09:3</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>14 jul. 2023, 09:39:17</t>
   </si>
 </sst>
 </file>
@@ -424,7 +433,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,13 +482,13 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
